--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1968,9 +1968,6 @@
     <t>standard_report_legacy.total_electricity</t>
   </si>
   <si>
-    <t>0.3.3</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2232,10 +2229,13 @@
     <t>large office</t>
   </si>
   <si>
-    <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
-  </si>
-  <si>
     <t>rgenoud template</t>
+  </si>
+  <si>
+    <t>../seeds/large_office_air_cooled_chiller.osm</t>
+  </si>
+  <si>
+    <t>0.3.5</t>
   </si>
 </sst>
 </file>
@@ -5796,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5834,8 +5834,8 @@
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>642</v>
+      <c r="B3" s="44" t="s">
+        <v>731</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5857,7 +5857,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5879,7 +5879,7 @@
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
@@ -5954,7 +5954,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5965,7 +5965,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6103,7 +6103,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="28">
       <c r="A26" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>waitGenerations</v>
@@ -6119,7 +6119,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" s="23" customFormat="1">
+    <row r="27" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A27" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>bfgsburnin</v>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="D27" s="27"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1">
+    <row r="28" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A28" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
         <v>solutionTolerance</v>
@@ -6265,7 +6265,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6291,7 +6291,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
@@ -6352,8 +6352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6471,7 +6471,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7085,7 +7085,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7278,13 +7278,15 @@
       <c r="M22" s="46">
         <v>50</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="42">
+        <v>10</v>
+      </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>726</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>727</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7457,7 +7459,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7621,7 +7623,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7718,7 +7720,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7785,13 +7787,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7925,7 +7927,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9843,7 +9845,7 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>622</v>
@@ -9882,7 +9884,7 @@
         <v>629</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>630</v>
@@ -9921,7 +9923,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9956,7 +9958,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9988,15 +9990,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10017,15 +10019,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10046,15 +10048,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10075,15 +10077,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10104,12 +10106,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10133,12 +10135,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10162,12 +10164,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10191,12 +10193,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10220,12 +10222,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10249,12 +10251,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10278,12 +10280,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10307,12 +10309,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10336,12 +10338,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10365,12 +10367,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10394,12 +10396,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10423,12 +10425,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10452,12 +10454,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10481,12 +10483,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10510,15 +10512,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -19005,7 +19007,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19013,19 +19015,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>649</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19039,10 +19041,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19056,10 +19058,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19073,44 +19075,44 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>655</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>658</v>
-      </c>
       <c r="E7" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19124,10 +19126,10 @@
         <v>600</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19141,10 +19143,10 @@
         <v>602</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19158,10 +19160,10 @@
         <v>603</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
@@ -19175,10 +19177,10 @@
         <v>605</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
@@ -19186,16 +19188,16 @@
         <v>606</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -13,10 +13,14 @@
     <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
     <sheet name="Lookups" sheetId="11" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
     <definedName name="AnalysisType">Lookups!$A$21:$A$27</definedName>
+    <definedName name="c3.4xlarge">[1]Lookups!$A$2:$A$12</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
     <definedName name="nsga">Lookups!$O$22:$P$28</definedName>
@@ -2187,9 +2191,6 @@
     <t>standard_reports.total_building_area</t>
   </si>
   <si>
-    <t>1.8.0-pre12</t>
-  </si>
-  <si>
     <t>South WWR</t>
   </si>
   <si>
@@ -2236,6 +2237,9 @@
   </si>
   <si>
     <t>0.3.5</t>
+  </si>
+  <si>
+    <t>1.8.0-rc2</t>
   </si>
 </sst>
 </file>
@@ -5507,6 +5511,83 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Setup"/>
+      <sheetName val="Variables"/>
+      <sheetName val="Outputs"/>
+      <sheetName val="BCL Measure Data"/>
+      <sheetName val="Lookups"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>m3.medium</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>m3.large</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>m3.xlarge</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>m3.2xlarge</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>m2.2xlarge</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>m2.4xlarge</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>c3.large</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>c3.xlarge</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>c3.2xlarge</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>c3.4xlarge</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>c3.8xlarge</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5797,7 +5878,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5835,7 +5916,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5857,7 +5938,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5902,7 +5983,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5910,11 +5991,11 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>32 Cores with 320 GB</v>
+        <v>16 Cores with 160 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$1.68/hour</v>
+        <v>$0.84/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5933,7 +6014,7 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$2.17/hour</v>
+        <v>$1.33/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -5954,7 +6035,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5965,7 +6046,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6265,7 +6346,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6291,13 +6372,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6321,7 +6402,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AnalysisType</formula1>
     </dataValidation>
@@ -6334,7 +6415,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>instance_types</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>instance_types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6617,7 +6701,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6969,7 +7053,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7055,7 +7139,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7085,7 +7169,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7255,7 +7339,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7283,10 +7367,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>725</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>726</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7459,7 +7543,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7623,7 +7707,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7787,7 +7871,7 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>

--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="734">
   <si>
     <t>type</t>
   </si>
@@ -2002,24 +2002,6 @@
     <t>80 GB</t>
   </si>
   <si>
-    <t>m2.2xlarge</t>
-  </si>
-  <si>
-    <t>$0.49/hour</t>
-  </si>
-  <si>
-    <t>850 GB</t>
-  </si>
-  <si>
-    <t>m2.4xlarge</t>
-  </si>
-  <si>
-    <t>$0.98/hour</t>
-  </si>
-  <si>
-    <t>840 GB</t>
-  </si>
-  <si>
     <t>16 GB</t>
   </si>
   <si>
@@ -2041,12 +2023,6 @@
     <t>Recommended for Server if large analysis because of storage</t>
   </si>
   <si>
-    <t>Worker Only</t>
-  </si>
-  <si>
-    <t>Worker Only - Recommended for Worker</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2236,10 +2212,40 @@
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
-    <t>0.3.5</t>
-  </si>
-  <si>
-    <t>1.8.0-rc2</t>
+    <t>0.3.6</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>AWS Tag</t>
+  </si>
+  <si>
+    <t>org=5500</t>
+  </si>
+  <si>
+    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
+  </si>
+  <si>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
   </si>
 </sst>
 </file>
@@ -2407,8 +2413,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1491">
+  <cellStyleXfs count="1495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4008,7 +4018,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1491">
+  <cellStyles count="1495">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4754,6 +4764,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5499,6 +5511,8 @@
     <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5522,10 +5536,10 @@
       <sheetName val="Lookups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
@@ -5549,37 +5563,37 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>m2.2xlarge</v>
+            <v>c3.large</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>m2.4xlarge</v>
+            <v>c3.xlarge</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>c3.large</v>
+            <v>c3.2xlarge</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>c3.xlarge</v>
+            <v>c3.4xlarge</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>c3.2xlarge</v>
+            <v>c3.8xlarge</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>c3.4xlarge</v>
+            <v>i2.xlarge</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>c3.8xlarge</v>
+            <v>i2.2xlarge</v>
           </cell>
         </row>
       </sheetData>
@@ -5875,10 +5889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5916,7 +5930,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5938,7 +5952,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5960,19 +5974,19 @@
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server if large analysis because of storage</v>
+        <v>Recommended for Server</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 850 GB</v>
+        <v>4 Cores with 40 GB</v>
       </c>
       <c r="E7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.49/hour</v>
+        <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>610</v>
@@ -5983,19 +5997,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>604</v>
+        <v>440</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only - Recommended for Worker</v>
+        <v>Recommended for worker</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>16 Cores with 160 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.84/hour</v>
+        <v>$0.42/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -6010,54 +6024,57 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$1.33/hour</v>
+        <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+      <c r="A10" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>619</v>
+        <v>720</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>452</v>
+        <v>709</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>619</v>
@@ -6065,360 +6082,368 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>437</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="16" t="b">
+        <v>464</v>
+      </c>
+      <c r="B16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>611</v>
+      <c r="F16" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>437</v>
+        <v>465</v>
+      </c>
+      <c r="B17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A20" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="23" customFormat="1">
-      <c r="B22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" s="23" customFormat="1">
+      <c r="B23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>popSize</v>
-      </c>
-      <c r="B24" s="18">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>30</v>
-      </c>
-      <c r="C24" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Size of initial population</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Generations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>popSize</v>
       </c>
       <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>5</v>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>30</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Number of generations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Size of initial population</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>waitGenerations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Generations</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>5</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>If no improvement in waitGenerations of generations, then exit</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Number of generations</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" ht="28">
+    <row r="27" spans="1:6" ht="28">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>bfgsburnin</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>waitGenerations</v>
       </c>
       <c r="B27" s="18">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>The number of generations which are run before the BFGS is ﬁrst used</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
       <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>bfgsburnin</v>
+      </c>
+      <c r="B28" s="18">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>2</v>
+      </c>
+      <c r="C28" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>The number of generations which are run before the BFGS is ﬁrst used</v>
+      </c>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="28">
+      <c r="A29" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>solutionTolerance</v>
       </c>
-      <c r="B28" s="18">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B29" s="18">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>0.01</v>
       </c>
-      <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C29" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>Numbers within solutionTolerance are considered equal</v>
-      </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
-      <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>epsilonGradient</v>
-      </c>
-      <c r="B29" s="18">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.01</v>
-      </c>
-      <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>epsilon in gradient calculation</v>
       </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>pgtol</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>epsilonGradient</v>
       </c>
       <c r="B30" s="18">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>tolerance on the projected gradient</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>epsilon in gradient calculation</v>
       </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>factr</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>pgtol</v>
       </c>
       <c r="B31" s="18">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>45036000000000</v>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>0.01</v>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Tolerance on delta_F</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>tolerance on the projected gradient</v>
       </c>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>factr</v>
+      </c>
+      <c r="B32" s="18">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>45036000000000</v>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Tolerance on delta_F</v>
+      </c>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" s="23" customFormat="1">
+      <c r="A33" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>maxit</v>
       </c>
-      <c r="B32" s="18">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B33" s="18">
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>100</v>
       </c>
-      <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C33" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>Maximum number of iterations</v>
       </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>normType</v>
       </c>
-      <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B34" s="18" t="str">
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>minkowski</v>
       </c>
-      <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C34" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" s="23" customFormat="1">
-      <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" s="23" customFormat="1">
+      <c r="A35" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>pPower</v>
       </c>
-      <c r="B34" s="18">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="B35" s="18">
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>Lp norm power</v>
       </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A36" s="6" t="s">
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:6" s="23" customFormat="1">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="26" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
-      <c r="A40" s="23" t="s">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="B41" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
       <formula1>TrueFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>instance_types</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
       <formula1>instance_types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6701,7 +6726,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -7053,7 +7078,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7139,7 +7164,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7169,7 +7194,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7339,7 +7364,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7367,10 +7392,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7543,7 +7568,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7707,7 +7732,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7804,7 +7829,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7871,13 +7896,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -8011,7 +8036,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -10007,7 +10032,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -10042,7 +10067,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -10074,15 +10099,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10103,15 +10128,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10132,15 +10157,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10161,15 +10186,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10190,12 +10215,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10219,12 +10244,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10248,12 +10273,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10277,12 +10302,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10306,12 +10331,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10335,12 +10360,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10364,12 +10389,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10393,12 +10418,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10422,12 +10447,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10451,12 +10476,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10480,12 +10505,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10509,12 +10534,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10538,12 +10563,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10567,12 +10592,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10596,15 +10621,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -19067,7 +19092,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19091,7 +19116,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19111,7 +19136,7 @@
         <v>648</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19128,7 +19153,7 @@
         <v>649</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19145,7 +19170,7 @@
         <v>650</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19162,126 +19187,126 @@
         <v>651</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>654</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="22" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>447</v>
+        <v>654</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>666</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>604</v>
+        <v>729</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>605</v>
+        <v>730</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>659</v>
+        <v>731</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>606</v>
+        <v>732</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>660</v>
+        <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>607</v>
+        <v>733</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="743">
   <si>
     <t>type</t>
   </si>
@@ -2212,9 +2212,6 @@
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
-    <t>0.3.6</t>
-  </si>
-  <si>
     <t>1.8.0</t>
   </si>
   <si>
@@ -2246,6 +2243,36 @@
   </si>
   <si>
     <t>$1.71/hour</t>
+  </si>
+  <si>
+    <t>0.3.7</t>
+  </si>
+  <si>
+    <t>Worker Initialization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script</t>
+  </si>
+  <si>
+    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Worker Finalization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script)</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio South</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio East</t>
   </si>
 </sst>
 </file>
@@ -2413,8 +2440,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1495">
+  <cellStyleXfs count="1497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4018,7 +4047,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1495">
+  <cellStyles count="1497">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4766,6 +4795,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5513,6 +5543,7 @@
     <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5889,11 +5920,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5930,7 +5959,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5952,7 +5981,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5969,7 +5998,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6036,16 +6065,16 @@
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>724</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6426,6 +6455,48 @@
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A46" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
+      <c r="B47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" s="23" customFormat="1">
+      <c r="B48" s="18"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A49" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="8" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -6461,8 +6532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7123,7 +7194,7 @@
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>255</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -7323,7 +7394,7 @@
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -7527,8 +7598,8 @@
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>383</v>
+      <c r="B26" s="39" t="s">
+        <v>741</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7691,8 +7762,8 @@
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>383</v>
+      <c r="B30" s="39" t="s">
+        <v>742</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -8059,7 +8130,7 @@
       <c r="A39" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="39" t="s">
         <v>187</v>
       </c>
       <c r="C39" s="49" t="s">
@@ -19204,7 +19275,7 @@
         <v>652</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19221,7 +19292,7 @@
         <v>650</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19238,7 +19309,7 @@
         <v>651</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19255,7 +19326,7 @@
         <v>653</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19272,21 +19343,21 @@
         <v>655</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>730</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>731</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>658</v>
@@ -19294,16 +19365,16 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>658</v>

--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
@@ -2212,9 +2212,6 @@
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
     <t>AWS Tag</t>
   </si>
   <si>
@@ -2245,9 +2242,6 @@
     <t>$1.71/hour</t>
   </si>
   <si>
-    <t>0.3.7</t>
-  </si>
-  <si>
     <t>Worker Initialization Scripts - Name</t>
   </si>
   <si>
@@ -2273,6 +2267,12 @@
   </si>
   <si>
     <t>Window to Wall Ratio East</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
   </si>
 </sst>
 </file>
@@ -5567,10 +5567,10 @@
       <sheetName val="Lookups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
@@ -5922,7 +5922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5959,7 +5961,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5981,7 +5983,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -6065,16 +6067,16 @@
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>723</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>724</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6459,18 +6461,18 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>736</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6485,18 +6487,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -7599,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7763,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -19275,7 +19277,7 @@
         <v>652</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19292,7 +19294,7 @@
         <v>650</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19309,7 +19311,7 @@
         <v>651</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19326,7 +19328,7 @@
         <v>653</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19343,21 +19345,21 @@
         <v>655</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>729</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>730</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>658</v>
@@ -19365,16 +19367,16 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>658</v>

--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -2272,7 +2272,7 @@
     <t>0.4.0</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.3</t>
   </si>
 </sst>
 </file>
@@ -5567,10 +5567,10 @@
       <sheetName val="Lookups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">

--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -1873,15 +1873,9 @@
     <t>Default Cluster</t>
   </si>
   <si>
-    <t>Number of worker nodes to start.</t>
-  </si>
-  <si>
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -1900,9 +1894,6 @@
     <t>West</t>
   </si>
   <si>
-    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
-  </si>
-  <si>
     <t>Relative to this spreadsheet or absolute path</t>
   </si>
   <si>
@@ -2269,10 +2260,19 @@
     <t>Window to Wall Ratio East</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Choose which OpenStudio Server Version to use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/api/amis_v2.json</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
+  </si>
+  <si>
+    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
   </si>
 </sst>
 </file>
@@ -2440,8 +2440,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1497">
+  <cellStyleXfs count="1499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4047,7 +4049,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1497">
+  <cellStyles count="1499">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4796,6 +4798,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5544,6 +5547,7 @@
     <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5567,10 +5571,10 @@
       <sheetName val="Lookups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
@@ -5922,9 +5926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5961,7 +5963,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5983,10 +5985,10 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>618</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46" customHeight="1">
@@ -6020,7 +6022,7 @@
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28">
@@ -6046,7 +6048,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6055,28 +6057,28 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>609</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6094,7 +6096,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
@@ -6105,10 +6107,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6119,7 +6121,7 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6141,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>611</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6171,7 +6173,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6198,13 +6200,13 @@
         <v>451</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
@@ -6391,7 +6393,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6405,7 +6407,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6419,7 +6421,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
@@ -6431,13 +6433,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
@@ -6451,28 +6453,28 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6487,18 +6489,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -6653,7 +6655,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6799,7 +6801,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -7151,7 +7153,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7237,7 +7239,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7267,7 +7269,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7437,7 +7439,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7465,10 +7467,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7601,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7641,7 +7643,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7738,7 +7740,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>84</v>
@@ -7765,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7805,7 +7807,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7902,7 +7904,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7969,13 +7971,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -8109,7 +8111,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -10027,10 +10029,10 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -10042,41 +10044,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>625</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10088,30 +10090,30 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>470</v>
@@ -10137,16 +10139,16 @@
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>470</v>
@@ -10172,15 +10174,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10201,15 +10203,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10230,15 +10232,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10259,15 +10261,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10288,12 +10290,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10317,12 +10319,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10346,12 +10348,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10375,12 +10377,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10404,12 +10406,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10433,12 +10435,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10462,12 +10464,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10491,12 +10493,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10520,12 +10522,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10549,12 +10551,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10578,12 +10580,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10607,12 +10609,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10636,12 +10638,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10665,12 +10667,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10694,15 +10696,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -19189,7 +19191,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19197,19 +19199,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>648</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19223,10 +19225,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19240,10 +19242,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19257,10 +19259,10 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
@@ -19274,10 +19276,10 @@
         <v>600</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19291,10 +19293,10 @@
         <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19308,10 +19310,10 @@
         <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19325,10 +19327,10 @@
         <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19336,50 +19338,50 @@
         <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_rgenoud.xlsx
+++ b/projects/template_rgenoud.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -13,14 +13,10 @@
     <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
     <sheet name="Lookups" sheetId="11" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
-    <definedName name="AnalysisType">Lookups!$A$21:$A$27</definedName>
-    <definedName name="c3.4xlarge">[1]Lookups!$A$2:$A$12</definedName>
+    <definedName name="AnalysisType">Lookups!$A$21:$A$30</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
     <definedName name="nsga">Lookups!$O$22:$P$28</definedName>
@@ -34,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="751">
   <si>
     <t>type</t>
   </si>
@@ -1894,6 +1890,9 @@
     <t>West</t>
   </si>
   <si>
+    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
+  </si>
+  <si>
     <t>Relative to this spreadsheet or absolute path</t>
   </si>
   <si>
@@ -1942,9 +1941,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
     <t>Total Natural Gas Intensity</t>
   </si>
   <si>
@@ -2197,12 +2193,30 @@
     <t>large office</t>
   </si>
   <si>
-    <t>rgenoud template</t>
-  </si>
-  <si>
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
+  </si>
+  <si>
     <t>AWS Tag</t>
   </si>
   <si>
@@ -2212,27 +2226,6 @@
     <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
   </si>
   <si>
-    <t>Can be used as worker</t>
-  </si>
-  <si>
-    <t>Recommended for worker</t>
-  </si>
-  <si>
-    <t>i2.xlarge</t>
-  </si>
-  <si>
-    <t>$0.85/hour</t>
-  </si>
-  <si>
-    <t>800 GB</t>
-  </si>
-  <si>
-    <t>i2.2xlarge</t>
-  </si>
-  <si>
-    <t>$1.71/hour</t>
-  </si>
-  <si>
     <t>Worker Initialization Scripts - Name</t>
   </si>
   <si>
@@ -2263,9 +2256,6 @@
     <t>1.9.3</t>
   </si>
   <si>
-    <t>Choose which OpenStudio Server Version to use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/api/amis_v2.json</t>
-  </si>
-  <si>
     <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
   </si>
   <si>
@@ -2273,6 +2263,36 @@
   </si>
   <si>
     <t>0.4.2</t>
+  </si>
+  <si>
+    <t>single_run</t>
+  </si>
+  <si>
+    <t>repeat_run</t>
+  </si>
+  <si>
+    <t>Number of Runs</t>
+  </si>
+  <si>
+    <t>Exit On Guideline14</t>
+  </si>
+  <si>
+    <t>0 false / 1 true (for use with calibration report)</t>
+  </si>
+  <si>
+    <t>Rgenoud Template</t>
+  </si>
+  <si>
+    <t>doe</t>
+  </si>
+  <si>
+    <t>positive integer (this discretizes a continous variable)</t>
+  </si>
+  <si>
+    <t>Experiement Type</t>
+  </si>
+  <si>
+    <t>full_factorial</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2439,8 +2459,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1499">
+  <cellStyleXfs count="1503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3940,8 +3969,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4039,17 +4072,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1499">
+  <cellStyles count="1503">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4799,6 +4835,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5548,6 +5586,8 @@
     <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5558,83 +5598,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Setup"/>
-      <sheetName val="Variables"/>
-      <sheetName val="Outputs"/>
-      <sheetName val="BCL Measure Data"/>
-      <sheetName val="Lookups"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>m3.medium</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>m3.large</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>m3.xlarge</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>m3.2xlarge</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>c3.large</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>c3.xlarge</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>c3.2xlarge</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>c3.4xlarge</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>c3.8xlarge</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>i2.xlarge</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>i2.2xlarge</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5926,19 +5889,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5948,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5958,18 +5923,18 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5980,18 +5945,18 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -6002,7 +5967,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6025,12 +5990,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -6038,17 +6003,17 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>8 Cores with 80 GB</v>
+        <v>32 Cores with 320 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.42/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6061,27 +6026,27 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.7/hour</v>
+        <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6091,18 +6056,18 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6110,10 +6075,10 @@
         <v>706</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6121,10 +6086,10 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6135,7 +6100,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6143,10 +6108,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6157,7 +6122,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
@@ -6168,7 +6133,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -6182,7 +6147,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6190,12 +6155,12 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1">
+    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
@@ -6213,187 +6178,199 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>popSize</v>
       </c>
       <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>30</v>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>40</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Size of initial population</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="27">
+        <v>40</v>
+      </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>Generations</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>5</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Number of generations</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" ht="28">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>waitGenerations</v>
       </c>
       <c r="B27" s="18">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" ht="28">
+    <row r="28" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>bfgsburnin</v>
       </c>
       <c r="B28" s="18">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>The number of generations which are run before the BFGS is ﬁrst used</v>
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="28">
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>solutionTolerance</v>
       </c>
       <c r="B29" s="18">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Numbers within solutionTolerance are considered equal</v>
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
+    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>epsilonGradient</v>
       </c>
       <c r="B30" s="18">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>epsilon in gradient calculation</v>
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>pgtol</v>
       </c>
       <c r="B31" s="18">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>tolerance on the projected gradient</v>
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
+    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>factr</v>
       </c>
       <c r="B32" s="18">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>45036000000000</v>
       </c>
       <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Tolerance on delta_F</v>
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1">
+    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>maxit</v>
       </c>
       <c r="B33" s="18">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>100</v>
       </c>
       <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Maximum number of iterations</v>
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>normType</v>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>minkowski</v>
       </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>pPower</v>
       </c>
       <c r="B35" s="18">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>Lp norm power</v>
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>Exit On Guideline14</v>
+      </c>
+      <c r="B36" s="18">
+        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>0 false / 1 true (for use with calibration report)</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6402,7 +6379,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -6410,25 +6387,25 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="51" t="s">
         <v>455</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
@@ -6439,13 +6416,13 @@
         <v>41</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
@@ -6453,7 +6430,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -6461,46 +6438,46 @@
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="C46" s="6" t="s">
         <v>730</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="23" customFormat="1">
+    <row r="48" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>733</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>734</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -6534,39 +6511,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6593,16 +6568,16 @@
       <c r="R1" s="33"/>
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6638,7 +6613,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6716,7 +6691,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6754,7 +6729,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6794,7 +6769,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1">
+    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6842,7 +6817,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1">
+    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6880,7 +6855,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6918,7 +6893,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6956,7 +6931,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6994,7 +6969,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7032,7 +7007,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7070,7 +7045,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1">
+    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7108,7 +7083,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
+    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7146,7 +7121,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
+    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7194,7 +7169,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7232,7 +7207,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7280,7 +7255,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7318,7 +7293,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7356,7 +7331,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7394,7 +7369,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7432,7 +7407,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7484,7 +7459,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7522,7 +7497,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7560,7 +7535,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7598,12 +7573,12 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7636,7 +7611,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7684,7 +7659,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7722,7 +7697,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7762,12 +7737,12 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7800,7 +7775,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7848,7 +7823,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7886,7 +7861,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7926,7 +7901,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1">
+    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7964,7 +7939,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1">
+    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -8014,7 +7989,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
+    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -8054,7 +8029,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
+    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8092,7 +8067,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1">
+    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8130,111 +8105,147 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="29" customFormat="1" ht="15">
-      <c r="A39" s="49" t="b">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-    </row>
-    <row r="40" spans="1:26" s="47" customFormat="1" ht="15">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50" t="s">
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+    </row>
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="48"/>
+      <c r="D40" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50">
+      <c r="H40" s="48"/>
+      <c r="I40" s="48">
         <v>1</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="48">
+      <c r="J40" s="48"/>
+      <c r="K40" s="49">
         <v>-2</v>
       </c>
-      <c r="L40" s="48">
-        <v>2</v>
-      </c>
-      <c r="M40" s="48">
-        <v>0</v>
-      </c>
-      <c r="N40" s="48">
+      <c r="L40" s="49">
+        <v>2</v>
+      </c>
+      <c r="M40" s="49">
+        <v>0</v>
+      </c>
+      <c r="N40" s="49">
         <f>(L40-K40)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="49">
         <v>1</v>
       </c>
-      <c r="R40" s="47" t="s">
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" s="47" customFormat="1" ht="15">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50" t="s">
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+    </row>
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50" t="s">
+      <c r="F41" s="48"/>
+      <c r="G41" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50">
+      <c r="H41" s="48"/>
+      <c r="I41" s="48">
         <v>-1</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="48">
+      <c r="J41" s="48"/>
+      <c r="K41" s="49">
         <v>-2</v>
       </c>
-      <c r="L41" s="48">
-        <v>2</v>
-      </c>
-      <c r="M41" s="48">
-        <v>0</v>
-      </c>
-      <c r="N41" s="48">
+      <c r="L41" s="49">
+        <v>2</v>
+      </c>
+      <c r="M41" s="49">
+        <v>0</v>
+      </c>
+      <c r="N41" s="49">
         <f>(L41-K41)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="49">
         <v>1</v>
       </c>
-      <c r="R41" s="47" t="s">
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+    </row>
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8257,7 +8268,7 @@
       <c r="J42" s="10"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1">
+    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
@@ -8274,43 +8285,58 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="47" customFormat="1">
-      <c r="B44" s="47" t="s">
+    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50" t="s">
         <v>535</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="F44" s="50"/>
+      <c r="G44" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="47">
+      <c r="H44" s="50"/>
+      <c r="I44" s="50">
         <v>44</v>
       </c>
-      <c r="K44" s="47">
+      <c r="J44" s="50"/>
+      <c r="K44" s="50">
         <v>42</v>
       </c>
-      <c r="L44" s="47">
+      <c r="L44" s="50">
         <v>46</v>
       </c>
-      <c r="M44" s="47">
+      <c r="M44" s="50">
         <v>44</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="49">
         <f>(L44-K44)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O44" s="48">
+      <c r="O44" s="49">
         <v>1</v>
       </c>
-      <c r="R44" s="47" t="s">
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" s="29" customFormat="1">
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+    </row>
+    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="b">
         <v>1</v>
       </c>
@@ -8326,44 +8352,80 @@
       <c r="E45" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" s="47" customFormat="1">
-      <c r="B46" s="47" t="s">
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+    </row>
+    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="47">
+      <c r="H46" s="50"/>
+      <c r="I46" s="50">
         <v>120</v>
       </c>
-      <c r="K46" s="47">
+      <c r="J46" s="50"/>
+      <c r="K46" s="50">
         <v>118</v>
       </c>
-      <c r="L46" s="47">
+      <c r="L46" s="50">
         <v>122</v>
       </c>
-      <c r="M46" s="47">
+      <c r="M46" s="50">
         <v>120</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="49">
         <f>(L46-K46)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O46" s="48">
+      <c r="O46" s="49">
         <v>1</v>
       </c>
-      <c r="R46" s="47" t="s">
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" s="28" customFormat="1" ht="15">
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+    </row>
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="b">
         <v>1</v>
       </c>
@@ -8401,7 +8463,7 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8441,7 +8503,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8481,7 +8543,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8509,7 +8571,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8537,7 +8599,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8565,7 +8627,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8593,7 +8655,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8621,8 +8683,8 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8649,7 +8711,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" customFormat="1" ht="15">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8677,7 +8739,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15">
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8690,11 +8752,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8705,8 +8767,8 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" customFormat="1" ht="15">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8733,8 +8795,8 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" customFormat="1" ht="15">
-      <c r="A59" s="15"/>
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -8746,7 +8808,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="15"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
@@ -8761,7 +8823,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8774,11 +8836,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8789,8 +8851,8 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" customFormat="1" ht="15">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -8802,11 +8864,11 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
@@ -8817,8 +8879,8 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
-      <c r="A62" s="15"/>
+    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8830,7 +8892,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="15"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
@@ -8845,7 +8907,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8858,11 +8920,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -8873,8 +8935,8 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8886,11 +8948,11 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="15"/>
@@ -8901,8 +8963,8 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
-      <c r="A65" s="15"/>
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -8914,7 +8976,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
-      <c r="M65" s="15"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
@@ -8929,7 +8991,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8942,11 +9004,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -8957,8 +9019,8 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -8970,11 +9032,11 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
@@ -8985,8 +9047,8 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
-      <c r="A68" s="15"/>
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -8998,7 +9060,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="15"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
@@ -9013,7 +9075,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9026,11 +9088,11 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -9041,24 +9103,24 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" ht="15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
       <c r="S70" s="15"/>
       <c r="T70" s="15"/>
@@ -9069,19 +9131,19 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" ht="15">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
@@ -9097,20 +9159,20 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" ht="15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
@@ -9125,24 +9187,24 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" ht="15">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="41"/>
       <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
+      <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
@@ -9153,7 +9215,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9181,7 +9243,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9209,7 +9271,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9237,7 +9299,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9252,8 +9314,8 @@
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
@@ -9265,7 +9327,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9293,7 +9355,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9307,9 +9369,9 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9321,7 +9383,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9349,7 +9411,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9377,7 +9439,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9405,7 +9467,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" ht="15">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9419,9 +9481,9 @@
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
@@ -9433,7 +9495,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9461,7 +9523,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9489,8 +9551,8 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26">
-      <c r="A86" s="15"/>
+    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -9504,8 +9566,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9517,7 +9579,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9545,7 +9607,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9560,8 +9622,8 @@
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
@@ -9573,7 +9635,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9588,8 +9650,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9601,8 +9663,8 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" ht="15">
-      <c r="A90" s="10"/>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -9616,8 +9678,8 @@
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
@@ -9629,7 +9691,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9644,8 +9706,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9657,7 +9719,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9672,8 +9734,8 @@
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -9685,7 +9747,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9713,7 +9775,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9741,7 +9803,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9769,7 +9831,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9797,7 +9859,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9825,7 +9887,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9853,118 +9915,6 @@
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
     </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
-      <c r="T99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="V99" s="15"/>
-      <c r="W99" s="15"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="15"/>
-      <c r="T100" s="15"/>
-      <c r="U100" s="15"/>
-      <c r="V100" s="15"/>
-      <c r="W100" s="15"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="15"/>
-    </row>
-    <row r="101" spans="1:26">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="V101" s="15"/>
-      <c r="W101" s="15"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
-    </row>
-    <row r="102" spans="1:26">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
   <mergeCells count="1">
@@ -9984,30 +9934,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -10024,7 +9974,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -10032,7 +9982,7 @@
         <v>640</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -10044,41 +9994,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>641</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10090,19 +10040,17 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>631</v>
-      </c>
-      <c r="M3" s="35" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>633</v>
       </c>
@@ -10137,7 +10085,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>636</v>
       </c>
@@ -10168,11 +10116,13 @@
       <c r="J5" s="15">
         <v>590</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="15">
+        <v>5</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>660</v>
       </c>
@@ -10201,7 +10151,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>662</v>
       </c>
@@ -10230,7 +10180,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>663</v>
       </c>
@@ -10259,7 +10209,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>664</v>
       </c>
@@ -10275,7 +10225,7 @@
         <v>64</v>
       </c>
       <c r="G9" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="15" t="b">
         <v>1</v>
@@ -10288,7 +10238,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>666</v>
       </c>
@@ -10317,7 +10267,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>668</v>
       </c>
@@ -10346,7 +10296,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>670</v>
       </c>
@@ -10375,7 +10325,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>672</v>
       </c>
@@ -10404,7 +10354,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>674</v>
       </c>
@@ -10433,7 +10383,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>676</v>
       </c>
@@ -10462,7 +10412,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1">
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>678</v>
       </c>
@@ -10491,7 +10441,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>680</v>
       </c>
@@ -10520,7 +10470,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>682</v>
       </c>
@@ -10549,7 +10499,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>684</v>
       </c>
@@ -10578,7 +10528,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>686</v>
       </c>
@@ -10607,7 +10557,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1">
+    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>688</v>
       </c>
@@ -10636,7 +10586,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1">
+    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>690</v>
       </c>
@@ -10665,7 +10615,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>692</v>
       </c>
@@ -10694,7 +10644,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>694</v>
       </c>
@@ -10710,7 +10660,7 @@
         <v>64</v>
       </c>
       <c r="G24" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15" t="b">
         <v>1</v>
@@ -10723,7 +10673,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10738,7 +10688,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10753,7 +10703,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10768,7 +10718,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10783,202 +10733,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -11000,19 +10950,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -11031,7 +10981,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11052,7 +11002,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11075,7 +11025,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11098,7 +11048,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11121,7 +11071,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11144,7 +11094,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11167,7 +11117,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11190,7 +11140,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11213,7 +11163,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11236,7 +11186,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11255,7 +11205,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11276,7 +11226,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11299,7 +11249,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11322,7 +11272,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11345,7 +11295,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11368,7 +11318,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11391,7 +11341,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11414,7 +11364,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11437,7 +11387,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11460,7 +11410,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11479,7 +11429,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11502,7 +11452,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11525,7 +11475,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11548,7 +11498,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11571,7 +11521,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11594,7 +11544,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11617,7 +11567,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11640,7 +11590,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11663,7 +11613,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11686,7 +11636,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11705,7 +11655,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11726,7 +11676,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11749,7 +11699,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11772,7 +11722,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11795,7 +11745,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11818,7 +11768,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11841,7 +11791,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11864,7 +11814,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11887,7 +11837,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11910,7 +11860,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11929,7 +11879,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11950,7 +11900,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11973,7 +11923,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11996,7 +11946,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -12019,7 +11969,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12042,7 +11992,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12065,7 +12015,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12088,7 +12038,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12111,7 +12061,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12134,7 +12084,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12153,7 +12103,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12174,7 +12124,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12197,7 +12147,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12220,7 +12170,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12243,7 +12193,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12266,7 +12216,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12289,7 +12239,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12312,7 +12262,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12335,7 +12285,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12358,7 +12308,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12377,7 +12327,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12398,7 +12348,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12423,7 +12373,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12446,7 +12396,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12469,7 +12419,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12492,7 +12442,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12515,7 +12465,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12538,7 +12488,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12561,7 +12511,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12584,7 +12534,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12607,7 +12557,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12626,7 +12576,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12647,7 +12597,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12670,7 +12620,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12695,7 +12645,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12718,7 +12668,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12741,7 +12691,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12764,7 +12714,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12787,7 +12737,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12810,7 +12760,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12833,7 +12783,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12856,7 +12806,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12879,7 +12829,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12902,7 +12852,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12925,7 +12875,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12944,7 +12894,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12967,7 +12917,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12990,7 +12940,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -13013,7 +12963,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -13036,7 +12986,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13059,7 +13009,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13082,7 +13032,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13105,7 +13055,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13128,7 +13078,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13151,7 +13101,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13174,7 +13124,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13193,7 +13143,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13218,7 +13168,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13237,7 +13187,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13258,7 +13208,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13283,7 +13233,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13302,7 +13252,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13325,7 +13275,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13350,7 +13300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13373,7 +13323,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13394,7 +13344,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13413,7 +13363,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13438,7 +13388,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13461,7 +13411,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13484,7 +13434,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13507,7 +13457,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13530,7 +13480,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13553,7 +13503,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13576,7 +13526,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13595,7 +13545,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13618,7 +13568,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13641,7 +13591,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13664,7 +13614,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13683,7 +13633,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13706,7 +13656,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13729,7 +13679,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13752,7 +13702,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13775,7 +13725,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13798,7 +13748,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13821,7 +13771,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13840,7 +13790,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13865,7 +13815,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13888,7 +13838,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13911,7 +13861,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13934,7 +13884,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13957,7 +13907,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13980,7 +13930,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -14003,7 +13953,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -14026,7 +13976,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14049,7 +13999,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14068,7 +14018,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14093,7 +14043,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14114,7 +14064,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14137,7 +14087,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14160,7 +14110,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14183,7 +14133,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14206,7 +14156,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14229,7 +14179,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14252,7 +14202,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14275,7 +14225,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14298,7 +14248,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14321,7 +14271,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14344,7 +14294,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14367,7 +14317,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14390,7 +14340,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14409,7 +14359,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14432,7 +14382,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14451,7 +14401,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14474,7 +14424,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14497,7 +14447,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14516,7 +14466,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14541,7 +14491,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14564,7 +14514,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14587,7 +14537,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14610,7 +14560,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14633,7 +14583,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14656,7 +14606,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14679,7 +14629,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14702,7 +14652,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14725,7 +14675,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14748,7 +14698,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14767,7 +14717,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14792,7 +14742,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14815,7 +14765,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14838,7 +14788,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14861,7 +14811,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14884,7 +14834,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14907,7 +14857,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14930,7 +14880,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14953,7 +14903,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14976,7 +14926,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14999,7 +14949,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -15018,7 +14968,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15041,7 +14991,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15064,7 +15014,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15087,7 +15037,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15110,7 +15060,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15129,7 +15079,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15152,7 +15102,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15175,7 +15125,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15198,7 +15148,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15221,7 +15171,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15240,7 +15190,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15261,7 +15211,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15284,7 +15234,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15303,7 +15253,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15326,7 +15276,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15351,7 +15301,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15372,7 +15322,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15397,7 +15347,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15422,7 +15372,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15441,7 +15391,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15466,7 +15416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15489,7 +15439,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15512,7 +15462,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15535,7 +15485,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15558,7 +15508,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15581,7 +15531,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15604,7 +15554,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15627,7 +15577,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15650,7 +15600,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15669,7 +15619,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15694,7 +15644,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15717,7 +15667,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15740,7 +15690,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15763,7 +15713,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15786,7 +15736,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15809,7 +15759,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15832,7 +15782,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15855,7 +15805,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15878,7 +15828,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15897,7 +15847,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15918,7 +15868,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15941,7 +15891,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15964,7 +15914,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15987,7 +15937,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -16010,7 +15960,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -16033,7 +15983,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16056,7 +16006,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16079,7 +16029,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16102,7 +16052,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16125,7 +16075,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16148,7 +16098,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16171,7 +16121,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16194,7 +16144,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16217,7 +16167,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16240,7 +16190,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16263,7 +16213,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16282,7 +16232,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16303,7 +16253,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16326,7 +16276,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16349,7 +16299,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16372,7 +16322,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16395,7 +16345,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16418,7 +16368,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16441,7 +16391,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16464,7 +16414,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16487,7 +16437,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16510,7 +16460,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16533,7 +16483,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16556,7 +16506,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16579,7 +16529,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16602,7 +16552,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16625,7 +16575,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16648,7 +16598,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16667,7 +16617,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16692,7 +16642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16715,7 +16665,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16738,7 +16688,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16761,7 +16711,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16784,7 +16734,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16803,7 +16753,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16828,7 +16778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16851,7 +16801,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16870,7 +16820,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16889,7 +16839,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16908,7 +16858,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16929,7 +16879,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16952,7 +16902,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16975,7 +16925,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16998,7 +16948,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -17021,7 +16971,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17044,7 +16994,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17067,7 +17017,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17090,7 +17040,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17113,7 +17063,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17136,7 +17086,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17159,7 +17109,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17178,7 +17128,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17201,7 +17151,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17220,7 +17170,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17245,7 +17195,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17268,7 +17218,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17291,7 +17241,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17314,7 +17264,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17337,7 +17287,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17360,7 +17310,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17383,7 +17333,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17406,7 +17356,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17429,7 +17379,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17452,7 +17402,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17475,7 +17425,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17494,7 +17444,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17517,7 +17467,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17536,7 +17486,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17557,7 +17507,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17576,7 +17526,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17597,7 +17547,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17616,7 +17566,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17637,7 +17587,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17656,7 +17606,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17679,7 +17629,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17698,7 +17648,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17723,7 +17673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17746,7 +17696,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17769,7 +17719,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17792,7 +17742,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17815,7 +17765,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17838,7 +17788,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17861,7 +17811,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17884,7 +17834,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17907,7 +17857,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17926,7 +17876,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17949,7 +17899,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17972,7 +17922,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17995,7 +17945,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -18018,7 +17968,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -18037,7 +17987,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18060,7 +18010,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18083,7 +18033,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18108,7 +18058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18127,7 +18077,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18152,7 +18102,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18175,7 +18125,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18194,7 +18144,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18215,7 +18165,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18236,7 +18186,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18259,7 +18209,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18278,7 +18228,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18297,7 +18247,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18322,7 +18272,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18347,7 +18297,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18361,7 +18311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18384,7 +18334,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18404,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18424,7 +18374,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18444,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18461,7 +18411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18484,7 +18434,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18507,7 +18457,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18521,7 +18471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18544,7 +18494,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18567,7 +18517,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18587,7 +18537,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18607,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18624,7 +18574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18650,7 +18600,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18679,7 +18629,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18718,7 +18668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18732,7 +18682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18752,7 +18702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18766,7 +18716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18786,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18806,7 +18756,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18826,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18846,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18866,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18886,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18906,7 +18856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18926,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18946,7 +18896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18960,7 +18910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18980,7 +18930,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19000,7 +18950,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19016,7 +18966,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19042,7 +18992,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19083,7 +19033,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19097,7 +19047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19117,7 +19067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19131,7 +19081,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19164,23 +19114,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19197,7 +19147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>642</v>
       </c>
@@ -19214,7 +19164,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>593</v>
       </c>
@@ -19231,7 +19181,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
+    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>595</v>
       </c>
@@ -19248,7 +19198,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>597</v>
       </c>
@@ -19265,7 +19215,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>599</v>
       </c>
@@ -19279,10 +19229,10 @@
         <v>649</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>601</v>
       </c>
@@ -19296,10 +19246,10 @@
         <v>647</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19313,10 +19263,10 @@
         <v>648</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>604</v>
       </c>
@@ -19330,10 +19280,10 @@
         <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>606</v>
       </c>
@@ -19347,46 +19297,46 @@
         <v>652</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="22" customFormat="1"/>
-    <row r="14" spans="1:7" s="22" customFormat="1"/>
-    <row r="15" spans="1:7">
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>573</v>
       </c>
@@ -19400,7 +19350,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -19414,7 +19364,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -19425,8 +19375,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1"/>
-    <row r="20" spans="1:21">
+    <row r="18" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>551</v>
       </c>
@@ -19451,8 +19401,19 @@
       <c r="U20" s="22" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="X20" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD20" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -19492,8 +19453,26 @@
       <c r="Q21" s="22" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="AA21" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>30</v>
+      </c>
+      <c r="AC21" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AD21" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE21" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="AF21" s="22" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19533,8 +19512,17 @@
       <c r="Q22" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="AD22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="22">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>545</v>
       </c>
@@ -19566,7 +19554,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19598,7 +19586,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>553</v>
       </c>
@@ -19627,7 +19615,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -19659,10 +19647,19 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>556</v>
       </c>
+      <c r="I27" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>745</v>
+      </c>
       <c r="L27" s="1" t="s">
         <v>546</v>
       </c>
@@ -19679,7 +19676,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>741</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>561</v>
       </c>
@@ -19699,7 +19699,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>742</v>
+      </c>
       <c r="L29" s="1" t="s">
         <v>562</v>
       </c>
@@ -19709,8 +19712,20 @@
       <c r="N29" s="22" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="O29" t="s">
+        <v>744</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>747</v>
+      </c>
       <c r="L30" s="1" t="s">
         <v>542</v>
       </c>
@@ -19718,7 +19733,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
         <v>544</v>
       </c>
@@ -19729,9 +19744,20 @@
         <v>577</v>
       </c>
     </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="L32" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
